--- a/www/ig/fhir/annuaire/StructureDefinition-as-device.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-device.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -300,6 +300,13 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Device.meta.id</t>
   </si>
   <si>
@@ -356,13 +363,13 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Device.meta.extension:as-data-trace</t>
-  </si>
-  <si>
-    <t>as-data-trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-data-trace}
+    <t>Device.meta.extension:as-ext-data-trace</t>
+  </si>
+  <si>
+    <t>as-ext-data-trace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
 </t>
   </si>
   <si>
@@ -477,6 +484,9 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CV</t>
+  </si>
+  <si>
     <t>Device.meta.tag</t>
   </si>
   <si>
@@ -593,16 +603,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Device.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -627,10 +631,6 @@
     <t>Synonyme : numeroAutorisationARHGOS</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Device.extension:as-ext-device-authorization-date-device</t>
   </si>
   <si>
@@ -689,7 +689,13 @@
 </t>
   </si>
   <si>
+    <t>Identifiant fonctionnel de l'autorisation ARHGOS de l'EML (Synonyme : numeroAutorisationARHGOS).</t>
+  </si>
+  <si>
     <t>Unique instance identifiers assigned to a device by manufacturers other organizations or owners.</t>
+  </si>
+  <si>
+    <t>The barcode string from a barcode present on a device label or package may identify the instance, include names given to the device in local usage, or may identify the type of device. If the identifier identifies the type of device, Device.type element should be used.</t>
   </si>
   <si>
     <t>.id</t>
@@ -714,6 +720,16 @@
     <t>The reference to the definition for the device.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
+  </si>
+  <si>
     <t>Device.udiCarrier</t>
   </si>
   <si>
@@ -767,6 +783,9 @@
   </si>
   <si>
     <t>The device identifier (DI) is a mandatory, fixed portion of a UDI that identifies the labeler and the specific version or model of a device.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Role.id.extension</t>
@@ -799,6 +818,9 @@
 http://hl7.org/fhir/NamingSystem/iccbba-other-di.</t>
   </si>
   <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
     <t>Role.id.root</t>
   </si>
   <si>
@@ -903,8 +925,7 @@
     <t>Status of the Device availability.</t>
   </si>
   <si>
-    <t>= “active” par défaut; 
-Sinon, si le matériel est inactif =” inactive”</t>
+    <t>This element is labeled as a modifier because the status contains the codes inactive and entered-in-error that mark the device (record)as not currently valid.</t>
   </si>
   <si>
     <t>The availability status of the device.</t>
@@ -932,10 +953,16 @@
     <t>Reason for the dtatus of the Device availability.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>The availability status reason of the device.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -969,9 +996,6 @@
     <t>A name of the manufacturer.</t>
   </si>
   <si>
-    <t>marque</t>
-  </si>
-  <si>
     <t>.playedRole[typeCode=MANU].scoper.name</t>
   </si>
   <si>
@@ -1021,13 +1045,13 @@
     <t>Device.serialNumber</t>
   </si>
   <si>
-    <t>Numéro de série de l'équipement matériel lourd</t>
+    <t>Numéro de série de l'équipement matériel lourd (Synonyme : numeroSerie).</t>
   </si>
   <si>
     <t>The serial number assigned by the organization when the device was manufactured.</t>
   </si>
   <si>
-    <t>Synonyme : numeroSerie</t>
+    <t>Alphanumeric Maximum 20.</t>
   </si>
   <si>
     <t>.playedRole[typeCode=MANU].id</t>
@@ -1104,9 +1128,6 @@
     <t>The part number of the device.</t>
   </si>
   <si>
-    <t>Alphanumeric Maximum 20.</t>
-  </si>
-  <si>
     <t>Device.type</t>
   </si>
   <si>
@@ -1116,10 +1137,7 @@
     <t>The kind or type of device.</t>
   </si>
   <si>
-    <t>Synonyme : equipementMaterielLourd</t>
-  </si>
-  <si>
-    <t>Liste des types d'EML</t>
+    <t>Liste des types d'EML (Synonyme : equipementMaterielLourd)</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J135-EquipementMaterielLourd-RASS/FHIR/JDV-J135-EquipementMaterielLourd-RASS</t>
@@ -1195,6 +1213,9 @@
   </si>
   <si>
     <t>A single component of the device version.</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>Device.version.value</t>
@@ -1246,6 +1267,16 @@
     <t>Property value as a quantity.</t>
   </si>
   <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
     <t>Device.property.valueCode</t>
   </si>
   <si>
@@ -1284,13 +1315,10 @@
 </t>
   </si>
   <si>
-    <t>Référence vers l'id de la structure FINESS ET à laquelle est rattaché cet équipement matériel lourd.</t>
+    <t>Référence vers l'id de la structure FINESS ET à laquelle est rattaché cet équipement matériel lourd (Synonyme : idStructure).</t>
   </si>
   <si>
     <t>An organization that is responsible for the provision and ongoing maintenance of the device.</t>
-  </si>
-  <si>
-    <t>Synonyme : idStructure</t>
   </si>
   <si>
     <t>.playedRole[typeCode=OWN].scoper</t>
@@ -1315,6 +1343,10 @@
     <t>used for troubleshooting etc.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>.scopedRole[typeCode=CON].player</t>
   </si>
   <si>
@@ -1366,6 +1398,9 @@
   </si>
   <si>
     <t>Descriptive information, usage information or implantation information that is not captured in an existing element.</t>
+  </si>
+  <si>
+    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
   </si>
   <si>
     <t>.text</t>
@@ -1711,17 +1746,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="41.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.56640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.40625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.6015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="40.96875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="143.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="143.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1730,24 +1765,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="111.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="112.0078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="58.1796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2184,13 +2219,13 @@
         <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2201,10 +2236,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2227,13 +2262,13 @@
         <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2284,7 +2319,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2299,7 +2334,7 @@
         <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2310,14 +2345,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2336,16 +2371,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2383,19 +2418,19 @@
         <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -2404,13 +2439,13 @@
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2421,13 +2456,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>74</v>
@@ -2449,13 +2484,13 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2506,7 +2541,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2515,10 +2550,10 @@
         <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -2532,10 +2567,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2561,13 +2596,13 @@
         <v>83</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2617,7 +2652,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2626,13 +2661,13 @@
         <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2643,10 +2678,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2669,16 +2704,16 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2728,7 +2763,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2737,13 +2772,13 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2754,10 +2789,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2780,16 +2815,16 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2839,7 +2874,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2848,13 +2883,13 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2865,10 +2900,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2891,16 +2926,16 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2950,7 +2985,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2959,13 +2994,13 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2976,10 +3011,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3002,16 +3037,16 @@
         <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3037,13 +3072,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -3061,7 +3096,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3070,13 +3105,13 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -3087,10 +3122,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3113,16 +3148,16 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3148,13 +3183,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3172,7 +3207,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3181,13 +3216,13 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3198,10 +3233,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3224,16 +3259,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3283,7 +3318,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3292,13 +3327,13 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3309,10 +3344,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3335,16 +3370,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3370,13 +3405,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3394,7 +3429,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3403,13 +3438,13 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3420,14 +3455,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3446,16 +3481,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3505,7 +3540,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3514,13 +3549,13 @@
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3531,14 +3566,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3557,16 +3592,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3616,7 +3651,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3631,7 +3666,7 @@
         <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -3642,14 +3677,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3668,15 +3703,17 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3713,17 +3750,19 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3732,13 +3771,13 @@
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3749,13 +3788,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
@@ -3777,16 +3816,16 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3836,7 +3875,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3845,10 +3884,10 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3865,7 +3904,7 @@
         <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>198</v>
@@ -3949,7 +3988,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3958,10 +3997,10 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3978,7 +4017,7 @@
         <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>204</v>
@@ -4060,7 +4099,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4069,10 +4108,10 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -4093,7 +4132,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4112,7 +4151,7 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>209</v>
@@ -4121,7 +4160,7 @@
         <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>211</v>
@@ -4161,16 +4200,16 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>212</v>
@@ -4182,13 +4221,13 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4228,13 +4267,13 @@
         <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4293,27 +4332,27 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4336,15 +4375,17 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4393,7 +4434,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4402,13 +4443,13 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4419,10 +4460,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4445,16 +4486,16 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4504,7 +4545,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4513,16 +4554,16 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4530,10 +4571,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4556,13 +4597,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4613,7 +4654,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4628,7 +4669,7 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4639,14 +4680,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4665,16 +4706,16 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4712,19 +4753,19 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4733,13 +4774,13 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4750,14 +4791,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4776,16 +4817,16 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>211</v>
@@ -4837,7 +4878,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4846,13 +4887,13 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4863,14 +4904,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4889,15 +4930,17 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4946,7 +4989,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4955,31 +4998,31 @@
         <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4998,15 +5041,17 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5055,7 +5100,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5064,27 +5109,27 @@
         <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5107,17 +5152,19 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5166,7 +5213,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5175,13 +5222,13 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5192,14 +5239,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5218,16 +5265,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5277,7 +5324,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5286,31 +5333,31 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5329,16 +5376,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5388,7 +5435,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5397,27 +5444,27 @@
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5440,17 +5487,19 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5475,13 +5524,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5499,7 +5548,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5508,13 +5557,13 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5525,10 +5574,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5551,16 +5600,16 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5586,13 +5635,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5610,7 +5659,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5619,16 +5668,16 @@
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5636,10 +5685,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5662,15 +5711,17 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5695,13 +5746,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5719,7 +5770,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5728,16 +5779,16 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5745,14 +5796,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5771,16 +5822,16 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5830,7 +5881,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5839,27 +5890,27 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5882,16 +5933,16 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5941,7 +5992,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5950,27 +6001,27 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5993,13 +6044,13 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6050,7 +6101,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6059,27 +6110,27 @@
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6102,13 +6153,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6159,7 +6210,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6168,27 +6219,27 @@
         <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6211,15 +6262,17 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6268,7 +6321,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6277,27 +6330,27 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6320,16 +6373,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6379,7 +6432,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6388,16 +6441,16 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6405,10 +6458,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6431,13 +6484,13 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6488,7 +6541,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6497,13 +6550,13 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6514,10 +6567,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6540,13 +6593,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6597,7 +6650,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6612,7 +6665,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6623,14 +6676,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6649,16 +6702,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6696,19 +6749,19 @@
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6717,13 +6770,13 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6734,14 +6787,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6760,16 +6813,16 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>211</v>
@@ -6821,7 +6874,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6830,13 +6883,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6847,14 +6900,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6873,15 +6926,17 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6930,7 +6985,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -6939,13 +6994,13 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6956,10 +7011,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6982,15 +7037,17 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7015,13 +7072,13 @@
         <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
@@ -7039,7 +7096,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7048,16 +7105,16 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7065,10 +7122,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7091,15 +7148,17 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7148,7 +7207,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7157,16 +7216,16 @@
         <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7174,10 +7233,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7200,16 +7259,16 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7259,7 +7318,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7268,16 +7327,16 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7285,10 +7344,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7311,16 +7370,16 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7346,13 +7405,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7370,7 +7429,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7379,13 +7438,13 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7396,10 +7455,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7422,13 +7481,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7479,7 +7538,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7488,13 +7547,13 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7505,10 +7564,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7531,13 +7590,13 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7588,7 +7647,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7603,7 +7662,7 @@
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7614,14 +7673,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7640,16 +7699,16 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7687,19 +7746,19 @@
         <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7708,13 +7767,13 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7725,14 +7784,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7751,16 +7810,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>211</v>
@@ -7812,7 +7871,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7821,13 +7880,13 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7838,14 +7897,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7864,15 +7923,17 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7921,7 +7982,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -7930,13 +7991,13 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7947,10 +8008,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7973,15 +8034,17 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8030,7 +8093,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8039,16 +8102,16 @@
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -8056,10 +8119,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8082,13 +8145,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8139,7 +8202,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8148,13 +8211,13 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8165,10 +8228,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8191,13 +8254,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8248,7 +8311,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8263,7 +8326,7 @@
         <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8274,14 +8337,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8300,16 +8363,16 @@
         <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8347,19 +8410,19 @@
         <v>74</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8368,13 +8431,13 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8385,14 +8448,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8411,16 +8474,16 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>211</v>
@@ -8472,7 +8535,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8481,13 +8544,13 @@
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8498,14 +8561,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8524,15 +8587,17 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8581,7 +8646,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8590,13 +8655,13 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8607,10 +8672,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8636,10 +8701,10 @@
         <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8690,7 +8755,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8699,16 +8764,16 @@
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8716,10 +8781,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8742,15 +8807,17 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -8799,7 +8866,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -8808,13 +8875,13 @@
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8825,10 +8892,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8851,13 +8918,13 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8908,7 +8975,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -8917,13 +8984,13 @@
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8934,10 +9001,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8960,13 +9027,13 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9017,7 +9084,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9032,7 +9099,7 @@
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -9043,14 +9110,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9069,16 +9136,16 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9116,19 +9183,19 @@
         <v>74</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9137,13 +9204,13 @@
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -9154,14 +9221,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9180,16 +9247,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>211</v>
@@ -9241,7 +9308,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9250,13 +9317,13 @@
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
@@ -9267,10 +9334,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9293,15 +9360,17 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9350,7 +9419,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -9359,13 +9428,13 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9376,10 +9445,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9402,15 +9471,17 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9459,7 +9530,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9468,13 +9539,13 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>120</v>
+        <v>398</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>74</v>
+        <v>399</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9485,10 +9556,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9511,15 +9582,17 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9568,7 +9641,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9577,13 +9650,13 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -9594,10 +9667,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9620,17 +9693,19 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O72" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -9679,7 +9754,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9688,16 +9763,16 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -9705,10 +9780,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9731,16 +9806,16 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>404</v>
+        <v>225</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9790,7 +9865,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9799,16 +9874,16 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -9816,10 +9891,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9842,16 +9917,16 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9901,7 +9976,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -9910,16 +9985,16 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>421</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -9927,10 +10002,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9953,17 +10028,19 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10012,7 +10089,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10021,16 +10098,16 @@
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -10038,10 +10115,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10064,16 +10141,16 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10123,7 +10200,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10132,16 +10209,16 @@
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10149,10 +10226,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10175,15 +10252,17 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10232,7 +10311,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10241,13 +10320,13 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
@@ -10258,10 +10337,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10284,15 +10363,17 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10341,7 +10422,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10350,13 +10431,13 @@
         <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>74</v>
@@ -10367,10 +10448,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10393,15 +10474,17 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10450,7 +10533,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10459,13 +10542,13 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>74</v>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-device.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-device.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>
@@ -695,6 +695,195 @@
     <t>Identifiant fonctionnel, numéro d'autorisation ARHGOS (numeroAutorisationARHGOS).</t>
   </si>
   <si>
+    <t>Device.identifier:numAutorisationArhgos.id</t>
+  </si>
+  <si>
+    <t>Device.identifier.id</t>
+  </si>
+  <si>
+    <t>Device.identifier:numAutorisationArhgos.extension</t>
+  </si>
+  <si>
+    <t>Device.identifier.extension</t>
+  </si>
+  <si>
+    <t>Device.identifier:numAutorisationArhgos.use</t>
+  </si>
+  <si>
+    <t>Device.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Device.identifier:numAutorisationArhgos.type</t>
+  </si>
+  <si>
+    <t>Device.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Device.identifier:numAutorisationArhgos.system</t>
+  </si>
+  <si>
+    <t>Device.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://arhgos.ars.sante.fr/</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Device.identifier:numAutorisationArhgos.value</t>
+  </si>
+  <si>
+    <t>Device.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Device.identifier:numAutorisationArhgos.period</t>
+  </si>
+  <si>
+    <t>Device.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Device.identifier:numAutorisationArhgos.assigner</t>
+  </si>
+  <si>
+    <t>Device.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>Device.definition</t>
   </si>
   <si>
@@ -709,10 +898,6 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
@@ -892,9 +1077,6 @@
     <t>Supports a way to distinguish hand entered from machine read data.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Codes to identify how UDI data was entered.</t>
   </si>
   <si>
@@ -929,10 +1111,6 @@
   </si>
   <si>
     <t>Device.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>online | paused | standby | offline | not-ready | transduc-discon | hw-discon | off</t>
@@ -1730,7 +1908,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM78"/>
+  <dimension ref="A1:AM86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1758,7 +1936,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -4232,7 +4410,7 @@
         <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4255,17 +4433,15 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4314,7 +4490,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4323,13 +4499,13 @@
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4340,14 +4516,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4363,19 +4539,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4413,19 +4589,19 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4437,13 +4613,13 @@
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4451,10 +4627,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4471,22 +4647,26 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4510,13 +4690,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4534,7 +4714,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4543,13 +4723,13 @@
         <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4560,21 +4740,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4583,21 +4763,23 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4621,46 +4803,46 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4671,45 +4853,45 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4719,10 +4901,10 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>76</v>
@@ -4758,22 +4940,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4784,14 +4966,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4813,13 +4995,13 @@
         <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4833,7 +5015,7 @@
         <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>76</v>
@@ -4869,7 +5051,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4884,25 +5066,25 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4918,19 +5100,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4980,7 +5162,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4992,24 +5174,24 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5029,23 +5211,21 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5093,7 +5273,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5105,10 +5285,10 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5119,14 +5299,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5142,19 +5322,19 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5204,7 +5384,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5216,35 +5396,35 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5256,16 +5436,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5315,13 +5495,13 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>96</v>
@@ -5330,21 +5510,21 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5367,20 +5547,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5404,13 +5580,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5428,7 +5604,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>103</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5437,13 +5613,13 @@
         <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>277</v>
+        <v>104</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5454,42 +5630,42 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>281</v>
+        <v>110</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5515,49 +5691,49 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5565,14 +5741,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5585,24 +5761,26 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5626,13 +5804,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5650,7 +5828,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5662,13 +5840,13 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5676,14 +5854,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5699,19 +5877,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5761,7 +5939,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5776,25 +5954,25 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5804,7 +5982,7 @@
         <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>76</v>
@@ -5813,16 +5991,16 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5872,7 +6050,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5887,21 +6065,21 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>98</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5924,16 +6102,20 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5981,7 +6163,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5996,25 +6178,25 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6030,18 +6212,20 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6090,7 +6274,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6105,25 +6289,25 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6139,19 +6323,19 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6201,7 +6385,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6216,21 +6400,21 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6244,7 +6428,7 @@
         <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>76</v>
@@ -6253,18 +6437,20 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6288,13 +6474,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6312,7 +6498,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6327,10 +6513,10 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6338,10 +6524,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6352,27 +6538,29 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6397,13 +6585,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6421,13 +6609,13 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>96</v>
@@ -6436,10 +6624,10 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>104</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6447,10 +6635,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6461,7 +6649,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6473,15 +6661,17 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6506,13 +6696,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6530,25 +6720,25 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>104</v>
+        <v>351</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6556,21 +6746,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6582,16 +6772,16 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>109</v>
+        <v>355</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>110</v>
+        <v>356</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6629,84 +6819,82 @@
         <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>114</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>234</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6754,44 +6942,44 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>236</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>84</v>
@@ -6806,17 +6994,15 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6865,10 +7051,10 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>84</v>
@@ -6880,21 +7066,21 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>104</v>
+        <v>367</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6902,7 +7088,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>84</v>
@@ -6917,17 +7103,15 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>168</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6952,13 +7136,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6976,10 +7160,10 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>84</v>
@@ -6991,21 +7175,21 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7031,13 +7215,13 @@
         <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7087,7 +7271,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7102,21 +7286,21 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7130,7 +7314,7 @@
         <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>76</v>
@@ -7142,13 +7326,13 @@
         <v>100</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7198,7 +7382,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7213,10 +7397,10 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7224,10 +7408,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7238,10 +7422,10 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>76</v>
@@ -7250,17 +7434,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7285,11 +7467,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7307,13 +7491,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>96</v>
@@ -7322,7 +7506,7 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>293</v>
+        <v>104</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7333,10 +7517,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7347,7 +7531,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7359,13 +7543,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
+        <v>102</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7416,19 +7600,19 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>351</v>
+        <v>103</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>104</v>
@@ -7442,21 +7626,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7468,15 +7652,17 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7513,34 +7699,34 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7551,14 +7737,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>106</v>
+        <v>293</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7571,24 +7757,26 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7624,19 +7812,19 @@
         <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>114</v>
+        <v>296</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7662,46 +7850,44 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>233</v>
+        <v>389</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>234</v>
+        <v>390</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>235</v>
+        <v>391</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7749,22 +7935,22 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7775,14 +7961,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7801,16 +7987,16 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>287</v>
+        <v>168</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7836,13 +8022,13 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -7860,7 +8046,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>84</v>
@@ -7875,10 +8061,10 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>293</v>
+        <v>397</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7886,10 +8072,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7915,13 +8101,13 @@
         <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7971,7 +8157,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7986,10 +8172,10 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>104</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -7997,10 +8183,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8011,7 +8197,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8023,15 +8209,17 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8080,13 +8268,13 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>96</v>
@@ -8095,10 +8283,10 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>104</v>
+        <v>381</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8106,10 +8294,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8123,7 +8311,7 @@
         <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>76</v>
@@ -8132,15 +8320,17 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>101</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8165,13 +8355,11 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8189,7 +8377,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>103</v>
+        <v>405</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8198,13 +8386,13 @@
         <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>104</v>
+        <v>351</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -8215,14 +8403,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8241,17 +8429,15 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>108</v>
+        <v>410</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8288,19 +8474,19 @@
         <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>114</v>
+        <v>409</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8312,10 +8498,10 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8326,46 +8512,42 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8413,22 +8595,22 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8439,21 +8621,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>331</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8465,16 +8647,16 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>370</v>
+        <v>108</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>371</v>
+        <v>109</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8512,34 +8694,34 @@
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>369</v>
+        <v>114</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8550,42 +8732,46 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8633,25 +8819,25 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8659,14 +8845,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8685,16 +8871,16 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8744,7 +8930,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>84</v>
@@ -8759,7 +8945,7 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>104</v>
+        <v>351</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8770,10 +8956,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8784,7 +8970,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8796,15 +8982,17 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8853,13 +9041,13 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>96</v>
@@ -8871,7 +9059,7 @@
         <v>104</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -8879,10 +9067,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8893,7 +9081,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8905,13 +9093,13 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>101</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>102</v>
+        <v>423</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8962,19 +9150,19 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>103</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>104</v>
@@ -8988,21 +9176,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -9014,17 +9202,15 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9061,34 +9247,34 @@
         <v>76</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9099,14 +9285,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9119,26 +9305,24 @@
         <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O67" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9174,19 +9358,19 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9212,44 +9396,46 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9297,22 +9483,22 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>385</v>
+        <v>296</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9323,21 +9509,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9349,16 +9535,16 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>389</v>
+        <v>234</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9408,22 +9594,22 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>393</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9434,10 +9620,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9448,7 +9634,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9460,17 +9646,15 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -9519,13 +9703,13 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>96</v>
@@ -9534,10 +9718,10 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>293</v>
+        <v>433</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -9545,10 +9729,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9556,7 +9740,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>84</v>
@@ -9571,20 +9755,18 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>399</v>
+        <v>100</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9632,10 +9814,10 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>84</v>
@@ -9644,13 +9826,13 @@
         <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>403</v>
+        <v>104</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9658,10 +9840,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9672,10 +9854,10 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>76</v>
@@ -9684,17 +9866,15 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>406</v>
+        <v>285</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -9743,25 +9923,25 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -9769,10 +9949,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9783,7 +9963,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9795,17 +9975,15 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>413</v>
+        <v>101</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9854,25 +10032,25 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>411</v>
+        <v>103</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>417</v>
+        <v>104</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -9880,21 +10058,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -9906,20 +10084,18 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>419</v>
+        <v>107</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>420</v>
+        <v>108</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>421</v>
+        <v>109</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
       </c>
@@ -9955,37 +10131,37 @@
         <v>76</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>418</v>
+        <v>114</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>423</v>
+        <v>98</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -9993,44 +10169,46 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>426</v>
+        <v>294</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>427</v>
+        <v>295</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10078,25 +10256,25 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>425</v>
+        <v>296</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>429</v>
+        <v>98</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10104,10 +10282,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10115,10 +10293,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -10130,16 +10308,16 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>431</v>
+        <v>234</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10189,13 +10367,13 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>96</v>
@@ -10204,7 +10382,7 @@
         <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>435</v>
+        <v>351</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -10215,10 +10393,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10238,19 +10416,19 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>287</v>
+        <v>447</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10300,7 +10478,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10312,10 +10490,10 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>451</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>277</v>
+        <v>452</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10326,10 +10504,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10340,7 +10518,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10352,16 +10530,16 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>440</v>
+        <v>234</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>221</v>
+        <v>348</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10411,32 +10589,924 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM78">
+  <autoFilter ref="A1:AM86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10446,7 +11516,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-device.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-device.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -692,7 +692,7 @@
     <t>numAutorisationArhgos</t>
   </si>
   <si>
-    <t>Identifiant fonctionnel, numéro d'autorisation ARHGOS (numeroAutorisationARHGOS).</t>
+    <t>Identifiant fonctionnel, numéro d'autorisation ARHGOS (numeroAutorisationARHGOS). Le system est mis à titre indicatif et pourra évoluer.</t>
   </si>
   <si>
     <t>Device.identifier:numAutorisationArhgos.id</t>
@@ -789,7 +789,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://arhgos.ars.sante.fr/</t>
+    <t>https://arhgos.ars.sante.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1474,7 +1474,7 @@
     <t>Device.owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization)
 </t>
   </si>
   <si>
@@ -1927,7 +1927,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="143.859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="145.890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-device.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-device.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
